--- a/docs/Reports/BillOfMaterials.xlsx
+++ b/docs/Reports/BillOfMaterials.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t xml:space="preserve">Item</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">BeagleBone Enhanced</t>
   </si>
   <si>
-    <t xml:space="preserve">Main flight computer for Webb 1</t>
+    <t xml:space="preserve">Main flight computer for Rocket</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.sancloud.co.uk/?page_id=1028&amp;model_number=BBE-WiFi-V1G</t>
@@ -191,7 +191,13 @@
     <t xml:space="preserve">Item Received</t>
   </si>
   <si>
+    <t xml:space="preserve">Received From</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sancloud Ltd</t>
   </si>
 </sst>
 </file>
@@ -333,7 +339,7 @@
   <dimension ref="B2:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -729,7 +735,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D21" s="4"/>
@@ -762,18 +768,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:F3"/>
+  <dimension ref="B2:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -784,13 +794,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>56</v>
+      <c r="G2" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -800,14 +813,17 @@
       <c r="C3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <f aca="false">E3*D3</f>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <f aca="false">F3*E3</f>
         <v>152</v>
       </c>
     </row>

--- a/docs/Reports/BillOfMaterials.xlsx
+++ b/docs/Reports/BillOfMaterials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARC\Research\docs\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FAF86CF-33DB-41FA-AD33-B06E8ADABAF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{62D4C8E2-87BB-4444-B4D6-34A09CA734EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
